--- a/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6749,4 +6750,2908 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.4156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.5668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>106.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.2261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1681</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0694</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4752</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3810</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2935</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1444</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0685</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0665</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0235</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0041</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9842</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9600</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9216</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7676</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5770</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4914</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4360</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>63.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>30.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>30.61</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9654,4 +9655,4922 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>338.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.8568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.4297</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>138.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>105.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1593</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9759</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>68.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3966</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1848</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3125</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2761</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1195</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0241</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9883</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>40.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9768</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8337</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8039</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7971</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7816</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7668</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5901</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5465</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5289</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5154</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4258</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4165</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005530</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004975</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>交银施罗德恒益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519766</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>交银施罗德荣鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002717</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>54.95</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>45.09</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002718</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>54.95</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>45.09</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010556</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14573,4 +14574,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>128</v>
+      </c>
+      <c r="D2" t="n">
+        <v>78.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.84999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>85</v>
+      </c>
+      <c r="D4" t="n">
+        <v>75.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14582,7 +14583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14593,17 +14594,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14613,14 +14634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>128</v>
-      </c>
-      <c r="D2" t="n">
-        <v>78.63</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>358.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.8199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -14629,14 +14672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>65.84999999999999</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>233.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.1910</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -14645,14 +14710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>85</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75.94</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>238.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.9035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -14661,13 +14748,5125 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4253</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1360</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8478</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7777</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5830</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3683</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2433</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1343</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0872</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0561</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0153</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9084</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8916</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8065</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6952</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5585</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4364</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4356</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3934</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2674</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001015</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011190</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011191</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001016</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>44.94</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010547</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>44.94</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>62.94</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010548</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>62.94</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>135</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>128</v>
+      </c>
+      <c r="D3" t="n">
+        <v>78.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.84999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>85</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>78</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>72.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19765,7 +19766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19776,17 +19777,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19796,14 +19817,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>135</v>
-      </c>
-      <c r="D2" t="n">
-        <v>82.38</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>209.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.0042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -19812,14 +19855,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>128</v>
-      </c>
-      <c r="D3" t="n">
-        <v>78.63</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>322.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.5360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -19828,14 +19893,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>65.84999999999999</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>230.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.6387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -19844,14 +19931,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>85</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75.94</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -19860,13 +19969,4269 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5167</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1574</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5476</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3828</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0865</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0222</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9588</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8887</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8824</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8243</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7618</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7147</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6692</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6647</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5741</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5081</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3965</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3965</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3959</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3793</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519062</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通阿尔法对冲混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>60.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>51.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001016</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004513</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海富通沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008831</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通安益对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>61.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>47.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005081</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通量化多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005080</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海富通量化多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008830</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通安益对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>61.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013714</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>方正富邦泰利12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004512</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海富通沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001196</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519134</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>海富通富祥混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008795</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>海富通阿尔法对冲混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>60.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002192</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>61.14</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>61.14</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013715</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>方正富邦泰利12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>113</v>
+      </c>
+      <c r="D2" t="n">
+        <v>79.40000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>135</v>
+      </c>
+      <c r="D3" t="n">
+        <v>82.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>128</v>
+      </c>
+      <c r="D4" t="n">
+        <v>78.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>65.84999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>85</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>78</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>72.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24114,7 +24115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24125,17 +24126,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -24145,14 +24166,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>113</v>
-      </c>
-      <c r="D2" t="n">
-        <v>79.40000000000001</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.2273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -24161,14 +24204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>135</v>
-      </c>
-      <c r="D3" t="n">
-        <v>82.38</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>326.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17.0780</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -24177,14 +24242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>128</v>
-      </c>
-      <c r="D4" t="n">
-        <v>78.63</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>228.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.1195</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -24193,14 +24280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>65.84999999999999</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2448</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -24209,14 +24318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>85</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75.94</v>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1507</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -24225,13 +24356,3335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6194</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2560</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2033</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1866</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0382</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9394</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9042</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7330</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6653</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6598</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5442</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5401</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4194</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2545</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>113</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79.40000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>135</v>
+      </c>
+      <c r="D4" t="n">
+        <v>82.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>128</v>
+      </c>
+      <c r="D5" t="n">
+        <v>78.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>65.84999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>85</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>78</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>72.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>73.8</v>
+        <v>66.73999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>79.40000000000001</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D4" t="n">
-        <v>82.38</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D5" t="n">
-        <v>78.63</v>
+        <v>82.38</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="D6" t="n">
-        <v>65.84999999999999</v>
+        <v>78.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>75.94</v>
+        <v>65.84999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>85</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>78</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>72.17</v>
       </c>
     </row>
@@ -600,6 +617,2986 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>289.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.8231</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>144.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.3797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>215.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.7671</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2913</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4906</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1474</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9340</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8327</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6975</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6410</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6221</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6204</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6124</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4947</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4726</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4582</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4284</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3016</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银新得益混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>76.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>76.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4035,7 +7032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8383,7 +11380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13565,7 +16562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18483,7 +21480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21387,7 +24384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24673,7 +27670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601688-华泰证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D2" t="n">
-        <v>66.73999999999999</v>
+        <v>60.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>73.8</v>
+        <v>66.73999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>79.40000000000001</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D5" t="n">
-        <v>82.38</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D6" t="n">
-        <v>78.63</v>
+        <v>82.38</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="D7" t="n">
-        <v>65.84999999999999</v>
+        <v>78.63</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>75.94</v>
+        <v>65.84999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3050 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>78</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>72.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>389.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.7983</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>229.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.6141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9963</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1674</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8614</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2658</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7895</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7441</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5066</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2972</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2756</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2077</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0894</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0365</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9908</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9614</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7169</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6980</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6633</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6467</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5478</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5308</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3687</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002463</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004716</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚量化阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009493</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000003</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中海可转换债券 - A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000004</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中海可转换债券 - C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009494</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000256</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根红利回报混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000887</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上投摩根稳进回报混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002436</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>上投摩根红利回报混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005404</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3654,3518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.3036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>296.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.5062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>221.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.1255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4918</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0798</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9273</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8700</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1568</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9936</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8245</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7353</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6577</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6522</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5925</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5590</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5456</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4247</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4092</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3845</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3407</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012485</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信汇益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银新得益混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>100.45</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161811</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华沪深300指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012486</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信汇益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011554</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>海富通欣利混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011555</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>海富通欣利混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3596,7 +10145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7032,7 +13581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11380,7 +17929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16562,7 +23111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21480,7 +28029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24384,7 +30933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27668,3024 +34217,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H79"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>389.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>22.7983</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>229.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>13.6141</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512900</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>67.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.9963</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161720</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>56.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.1674</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009362</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商丰盈积极配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>63.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.8614</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>163113</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>34.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.2658</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161027</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>31.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.7895</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008895</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信量化对冲策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>20.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.7441</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501016</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>22.42</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.5066</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512070</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达沪深300非银行金融ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>34.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.2972</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>510230</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰上证180金融ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>49.25</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>99.85</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.2756</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001552</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>28.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.2077</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159993</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华国证证券龙头ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>97.91</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.0894</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501047</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.0365</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>22.62</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.9908</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>160633</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.9614</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008591</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.7169</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>519700</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>交银主题优选混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>31.69</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>75.68</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.7003</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001553</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.6980</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>515560</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>建信中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.6633</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008590</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.6467</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>501048</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.5938</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009688</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>万家鑫动力月月购一年滚动持有混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>14.53</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.5478</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>160625</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.5310</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>240005</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华宝多策略增长</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.5308</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>515010</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华夏中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.4179</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>502010</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>易方达证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.3990</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009363</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>招商丰盈积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.3687</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>217009</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>招商核心价值混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.3414</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>160419</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.3398</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>002330</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>兴业聚宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>86.92</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.3192</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2786</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1694</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>502053</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1659</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>160516</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>博时中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1451</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001403</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>招商国企改革主题混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1443</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002783</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>东方红价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>12.85</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>22.70</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1336</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>519756</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.36</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1258</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>004836</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>中融鑫价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1106</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002837</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>华夏网购精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1067</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>002463</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0930</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>001719</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>工银瑞信国家战略主题股票</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0889</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>006803</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>嘉实互通精选股票</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>82.39</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0880</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>004837</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>中融鑫价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0874</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>515630</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险ETF</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>96.93</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0832</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004716</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>信诚量化阿尔法股票</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0829</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>399001</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>中海上证50指数增强</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0807</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>515850</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>005445</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>华宝价值发现混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0643</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>009493</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>大成尊享18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>001419</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>泰达宏利新思路灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>25.44</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>002314</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>泰达宏利新思路灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>25.44</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>000003</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>中海可转换债券 - A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>20.28</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0438</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>004769</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>申万菱信价值优先混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0427</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>007674</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>001596</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>信诚新泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>40.07</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0317</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>002177</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>信诚新泽回报灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>40.07</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0317</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>512570</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>易方达中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>98.58</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>161816</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>银华中证等权重90指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>002784</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>东方红价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>22.70</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>005437</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>510690</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>兴业上证180金融ETF</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>98.52</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>006926</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>长城量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>000004</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>中海可转换债券 - C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>20.28</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>007675</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>004456</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>兴银消费新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>005438</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>009494</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>大成尊享18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>000256</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>上投摩根红利回报混合A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>26.24</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>000887</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>上投摩根稳进回报混合</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>26.99</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>002436</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>上投摩根红利回报混合C</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>26.24</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>011463</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>长城量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>005404</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>007939</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>华夏网购精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>